--- a/fnrisV0_1/fNIRS_V0_1-STM32/document/通信指令.xlsx
+++ b/fnrisV0_1/fNIRS_V0_1-STM32/document/通信指令.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24750" windowHeight="12080"/>
+    <workbookView windowWidth="28800" windowHeight="12255"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2016,13 +2016,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
-<customStorage xmlns="https://web.wps.cn/et/2018/main">
-  <book/>
-  <sheets/>
-</customStorage>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -2045,8 +2038,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7387590" y="1368425"/>
-          <a:ext cx="2034540" cy="1282700"/>
+          <a:off x="8049895" y="1362075"/>
+          <a:ext cx="2172335" cy="1238250"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2098,8 +2091,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm flipV="1">
-          <a:off x="7387590" y="1349375"/>
-          <a:ext cx="5186680" cy="1498600"/>
+          <a:off x="8049895" y="1343025"/>
+          <a:ext cx="5658485" cy="1447800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -2387,31 +2380,31 @@
   <dimension ref="A1:W39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10:I10"/>
+      <selection activeCell="M10" sqref="M10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="12.2545454545455" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.62727272727273" style="2" customWidth="1"/>
-    <col min="3" max="3" width="10.7545454545455" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.8727272727273" style="2" customWidth="1"/>
+    <col min="1" max="1" width="12.2583333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.7583333333333" style="2" customWidth="1"/>
+    <col min="4" max="4" width="20.875" style="2" customWidth="1"/>
     <col min="5" max="5" width="9" style="2"/>
-    <col min="6" max="6" width="10.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="13.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="6" width="10.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="13.875" style="2" customWidth="1"/>
     <col min="8" max="8" width="5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="9" max="9" width="13.7583333333333" style="2" customWidth="1"/>
     <col min="10" max="11" width="9" style="2"/>
-    <col min="12" max="12" width="11.1272727272727" style="2" customWidth="1"/>
+    <col min="12" max="12" width="11.125" style="2" customWidth="1"/>
     <col min="13" max="15" width="9" style="2"/>
-    <col min="16" max="16" width="9.12727272727273" style="2" customWidth="1"/>
+    <col min="16" max="16" width="9.125" style="2" customWidth="1"/>
     <col min="17" max="17" width="9" style="2"/>
     <col min="18" max="18" width="12.5" style="2" customWidth="1"/>
-    <col min="19" max="19" width="11.1272727272727" style="2" customWidth="1"/>
-    <col min="20" max="20" width="13.7545454545455" style="2" customWidth="1"/>
+    <col min="19" max="19" width="11.125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="13.7583333333333" style="2" customWidth="1"/>
     <col min="21" max="21" width="53.5" style="2" customWidth="1"/>
     <col min="22" max="22" width="4.5" style="2" customWidth="1"/>
-    <col min="23" max="23" width="52.2545454545455" style="2" customWidth="1"/>
+    <col min="23" max="23" width="52.2583333333333" style="2" customWidth="1"/>
     <col min="24" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
@@ -2441,7 +2434,7 @@
       <c r="O2" s="54"/>
       <c r="P2" s="54"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="15.5" spans="1:16">
+    <row r="3" s="1" customFormat="1" ht="15" spans="1:16">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -2463,7 +2456,7 @@
       <c r="O3" s="54"/>
       <c r="P3" s="54"/>
     </row>
-    <row r="4" ht="15.5" spans="1:23">
+    <row r="4" ht="15" spans="1:23">
       <c r="A4" s="6"/>
       <c r="B4" s="6" t="s">
         <v>4</v>
@@ -2504,7 +2497,7 @@
       <c r="V4" s="82"/>
       <c r="W4" s="82"/>
     </row>
-    <row r="5" ht="15.5" spans="1:23">
+    <row r="5" ht="15" spans="1:23">
       <c r="A5" s="7"/>
       <c r="B5" s="8" t="s">
         <v>13</v>
@@ -2551,7 +2544,7 @@
       <c r="V5" s="84"/>
       <c r="W5" s="84"/>
     </row>
-    <row r="6" ht="15.5" spans="1:23">
+    <row r="6" ht="15" spans="1:23">
       <c r="A6" s="9" t="s">
         <v>21</v>
       </c>
@@ -2598,7 +2591,7 @@
       <c r="V6" s="86"/>
       <c r="W6" s="86"/>
     </row>
-    <row r="7" ht="14.75" spans="1:23">
+    <row r="7" ht="14.25" spans="1:23">
       <c r="A7" s="14" t="s">
         <v>32</v>
       </c>
@@ -2647,7 +2640,7 @@
       <c r="V7" s="88"/>
       <c r="W7" s="88"/>
     </row>
-    <row r="8" ht="14.75" spans="1:23">
+    <row r="8" ht="14.25" spans="1:23">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -2700,7 +2693,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="9" ht="14.75" spans="1:23">
+    <row r="9" ht="14.25" spans="1:23">
       <c r="A9" s="14" t="s">
         <v>48</v>
       </c>
@@ -2753,7 +2746,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="10" ht="15.5" spans="1:23">
+    <row r="10" ht="15" spans="1:23">
       <c r="A10" s="14" t="s">
         <v>51</v>
       </c>
@@ -2796,7 +2789,7 @@
       <c r="V10" s="92"/>
       <c r="W10" s="92"/>
     </row>
-    <row r="11" ht="14.75" spans="1:23">
+    <row r="11" ht="14.25" spans="1:23">
       <c r="A11" s="14" t="s">
         <v>55</v>
       </c>
@@ -2843,7 +2836,7 @@
       <c r="V11" s="93"/>
       <c r="W11" s="93"/>
     </row>
-    <row r="12" ht="14.75" spans="1:23">
+    <row r="12" ht="14.25" spans="1:23">
       <c r="A12" s="14" t="s">
         <v>20</v>
       </c>
@@ -2882,7 +2875,7 @@
       <c r="V12" s="68"/>
       <c r="W12" s="68"/>
     </row>
-    <row r="13" ht="14.75" spans="1:23">
+    <row r="13" ht="14.25" spans="1:23">
       <c r="A13" s="21" t="s">
         <v>65</v>
       </c>
@@ -2921,7 +2914,7 @@
       <c r="V13" s="50"/>
       <c r="W13" s="50"/>
     </row>
-    <row r="14" spans="2:23">
+    <row r="14" ht="14.25" spans="2:23">
       <c r="B14" s="2" t="s">
         <v>72</v>
       </c>
@@ -2962,7 +2955,7 @@
       <c r="V15" s="50"/>
       <c r="W15" s="50"/>
     </row>
-    <row r="16" ht="14.75" spans="12:23">
+    <row r="16" ht="14.25" spans="12:23">
       <c r="L16" s="70"/>
       <c r="M16" s="70" t="s">
         <v>79</v>
@@ -2981,7 +2974,7 @@
       <c r="V16" s="50"/>
       <c r="W16" s="50"/>
     </row>
-    <row r="17" s="1" customFormat="1" ht="15.5" spans="1:10">
+    <row r="17" s="1" customFormat="1" ht="15" spans="1:10">
       <c r="A17" s="28" t="s">
         <v>82</v>
       </c>
@@ -2995,7 +2988,7 @@
       <c r="I17" s="28"/>
       <c r="J17" s="28"/>
     </row>
-    <row r="18" ht="15.5" spans="1:10">
+    <row r="18" ht="15" spans="1:10">
       <c r="A18" s="29"/>
       <c r="B18" s="29" t="s">
         <v>4</v>
@@ -3021,7 +3014,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" ht="15.5" spans="1:10">
+    <row r="19" ht="15" spans="1:10">
       <c r="A19" s="29"/>
       <c r="B19" s="30" t="s">
         <v>13</v>
@@ -3047,7 +3040,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="20" s="2" customFormat="1" ht="15.5" spans="1:10">
+    <row r="20" s="2" customFormat="1" ht="15" spans="1:10">
       <c r="A20" s="31" t="s">
         <v>84</v>
       </c>
@@ -3064,7 +3057,7 @@
         <v>25</v>
       </c>
       <c r="F20" s="35">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="G20" s="35" t="s">
         <v>86</v>
@@ -3075,7 +3068,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="21" ht="14.75" spans="1:10">
+    <row r="21" ht="14.25" spans="1:10">
       <c r="A21" s="14" t="s">
         <v>87</v>
       </c>
@@ -3095,7 +3088,7 @@
       <c r="I21" s="18"/>
       <c r="J21" s="71"/>
     </row>
-    <row r="22" ht="14.75" spans="1:10">
+    <row r="22" ht="14.25" spans="1:10">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -3115,7 +3108,7 @@
       <c r="I22" s="18"/>
       <c r="J22" s="71"/>
     </row>
-    <row r="23" ht="14.75" spans="1:19">
+    <row r="23" ht="14.25" spans="1:19">
       <c r="A23" s="14" t="s">
         <v>90</v>
       </c>
@@ -3137,7 +3130,7 @@
       <c r="R23" s="51"/>
       <c r="S23" s="51"/>
     </row>
-    <row r="24" ht="14.75" spans="1:19">
+    <row r="24" ht="14.25" spans="1:19">
       <c r="A24" s="14" t="s">
         <v>91</v>
       </c>
@@ -3159,7 +3152,7 @@
       <c r="R24" s="51"/>
       <c r="S24" s="51"/>
     </row>
-    <row r="25" ht="14.75" spans="1:19">
+    <row r="25" ht="14.25" spans="1:19">
       <c r="A25" s="14" t="s">
         <v>93</v>
       </c>
@@ -3181,7 +3174,7 @@
       <c r="R25" s="51"/>
       <c r="S25" s="51"/>
     </row>
-    <row r="26" ht="14.75" spans="1:19">
+    <row r="26" ht="14.25" spans="1:19">
       <c r="A26" s="21" t="s">
         <v>94</v>
       </c>
@@ -3203,8 +3196,8 @@
       <c r="R26" s="94"/>
       <c r="S26" s="94"/>
     </row>
-    <row r="27" ht="15.5"/>
-    <row r="28" s="1" customFormat="1" ht="15.5" spans="1:13">
+    <row r="27" ht="15"/>
+    <row r="28" s="1" customFormat="1" ht="15" spans="1:13">
       <c r="A28" s="38" t="s">
         <v>95</v>
       </c>
@@ -3220,7 +3213,7 @@
       <c r="K28" s="73"/>
       <c r="M28" s="74"/>
     </row>
-    <row r="29" ht="15.5" spans="1:11">
+    <row r="29" ht="15" spans="1:11">
       <c r="A29" s="6"/>
       <c r="B29" s="6" t="s">
         <v>4</v>
@@ -3249,7 +3242,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" ht="15.5" spans="1:11">
+    <row r="30" ht="15" spans="1:11">
       <c r="A30" s="29"/>
       <c r="B30" s="30" t="s">
         <v>13</v>
@@ -3328,7 +3321,7 @@
       <c r="J32" s="80"/>
       <c r="K32" s="72"/>
     </row>
-    <row r="33" ht="14.75"/>
+    <row r="33" ht="14.25"/>
     <row r="34" spans="1:17">
       <c r="A34" s="46" t="s">
         <v>106</v>
@@ -3546,7 +3539,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3563,7 +3556,7 @@
       <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
